--- a/analysis/results/Q1_czech/models/supplements_models_colon.xlsx
+++ b/analysis/results/Q1_czech/models/supplements_models_colon.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -89,37 +89,37 @@
     <t xml:space="preserve">pre_ltx vs healthy ASV colon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986997377622378</t>
+    <t xml:space="preserve">0.97406015037594</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs post_ltx ASV colon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925719448990726</t>
+    <t xml:space="preserve">0.928571428571429</t>
   </si>
   <si>
     <t xml:space="preserve">post_ltx vs healthy ASV colon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976036965398668</t>
+    <t xml:space="preserve">0.959438259109312</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs healthy genus colon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940304487179487</t>
+    <t xml:space="preserve">0.976190476190476</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs post_ltx genus colon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826906028368794</t>
+    <t xml:space="preserve">0.927660059239007</t>
   </si>
   <si>
     <t xml:space="preserve">post_ltx vs healthy genus colon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969267139479905</t>
+    <t xml:space="preserve">0.975598086124402</t>
   </si>
   <si>
     <t xml:space="preserve">mtry</t>
@@ -176,9 +176,6 @@
     <t xml:space="preserve">0.905935347111818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994408074195308</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.911036036036036</t>
   </si>
   <si>
@@ -197,22 +194,22 @@
     <t xml:space="preserve">0.844992050874404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957969114219114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75216516639389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974263915753277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959498834498835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853024413529733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967386632280249</t>
+    <t xml:space="preserve">0.929699248120301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889537545787546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850683198380567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943233082706767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904647983595352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90491060186351</t>
   </si>
 </sst>
 </file>
@@ -779,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.775974993750258</v>
+        <v>0.908561071255448</v>
       </c>
       <c r="E8" t="n">
-        <v>0.678230913026368</v>
+        <v>0.830059984520124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.845617513257423</v>
+        <v>0.992375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.824817518248175</v>
+        <v>0.927007299270073</v>
       </c>
       <c r="H8" t="n">
-        <v>0.759512404209416</v>
+        <v>0.874237089558127</v>
       </c>
       <c r="I8" t="n">
-        <v>0.704245090016367</v>
+        <v>0.791842105263158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.817514822134387</v>
+        <v>0.943963675213675</v>
       </c>
     </row>
     <row r="9">
@@ -805,31 +802,31 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.578667827753082</v>
+        <v>0.768839323473783</v>
       </c>
       <c r="E9" t="n">
-        <v>0.534101501867895</v>
+        <v>0.632309283088235</v>
       </c>
       <c r="F9" t="n">
-        <v>0.637071814926527</v>
+        <v>0.852648276931254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.845272206303725</v>
+        <v>0.884</v>
       </c>
       <c r="H9" t="n">
-        <v>0.566833906226995</v>
+        <v>0.797899502499837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.511591551104263</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="J9" t="n">
-        <v>0.611807568438003</v>
+        <v>0.858634020618557</v>
       </c>
     </row>
     <row r="10">
@@ -837,31 +834,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>0.860514028859966</v>
+        <v>0.876532750282819</v>
       </c>
       <c r="E10" t="n">
-        <v>0.757009187894485</v>
+        <v>0.829231898238748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.976605017006803</v>
+        <v>0.928313816518847</v>
       </c>
       <c r="G10" t="n">
-        <v>0.893719806763285</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="H10" t="n">
-        <v>0.793139356150599</v>
+        <v>0.796261376696782</v>
       </c>
       <c r="I10" t="n">
-        <v>0.684217634574571</v>
+        <v>0.716037735849057</v>
       </c>
       <c r="J10" t="n">
-        <v>0.878891257995736</v>
+        <v>0.876859551859552</v>
       </c>
     </row>
     <row r="11">
@@ -869,31 +866,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.847486537072107</v>
+        <v>0.851001637425042</v>
       </c>
       <c r="E11" t="n">
-        <v>0.761305694523722</v>
+        <v>0.757980902777778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.887908430818879</v>
+        <v>0.94305303030303</v>
       </c>
       <c r="G11" t="n">
-        <v>0.883211678832117</v>
+        <v>0.846715328467153</v>
       </c>
       <c r="H11" t="n">
-        <v>0.806243548300781</v>
+        <v>0.793262414283268</v>
       </c>
       <c r="I11" t="n">
-        <v>0.709873327484097</v>
+        <v>0.723144007155635</v>
       </c>
       <c r="J11" t="n">
-        <v>0.84626976284585</v>
+        <v>0.918656422379827</v>
       </c>
     </row>
     <row r="12">
@@ -901,31 +898,31 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>0.521115220535476</v>
+        <v>0.695258631025166</v>
       </c>
       <c r="E12" t="n">
-        <v>0.424149693107756</v>
+        <v>0.51570443802521</v>
       </c>
       <c r="F12" t="n">
-        <v>0.60714063161916</v>
+        <v>0.837141810046804</v>
       </c>
       <c r="G12" t="n">
-        <v>0.71919770773639</v>
+        <v>0.872509960159363</v>
       </c>
       <c r="H12" t="n">
-        <v>0.527600257585189</v>
+        <v>0.804178070291388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.445538565463031</v>
+        <v>0.743558139534884</v>
       </c>
       <c r="J12" t="n">
-        <v>0.570085817524842</v>
+        <v>0.878178694158076</v>
       </c>
     </row>
     <row r="13">
@@ -933,31 +930,31 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.899210232516894</v>
+        <v>0.887786770463758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.824873820656258</v>
+        <v>0.834266759386381</v>
       </c>
       <c r="F13" t="n">
-        <v>0.987783952866861</v>
+        <v>0.932612557537399</v>
       </c>
       <c r="G13" t="n">
-        <v>0.893719806763285</v>
+        <v>0.802631578947368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.816933673353169</v>
+        <v>0.743175992175074</v>
       </c>
       <c r="I13" t="n">
-        <v>0.73546277665996</v>
+        <v>0.684259259259259</v>
       </c>
       <c r="J13" t="n">
-        <v>0.95073929115025</v>
+        <v>0.797212389380531</v>
       </c>
     </row>
   </sheetData>
@@ -1245,37 +1242,37 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>0.949794111013738</v>
+        <v>0.924134562628186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.888534638648126</v>
+        <v>0.864744582043344</v>
       </c>
       <c r="H8" t="n">
-        <v>0.989691207601044</v>
+        <v>0.96640625</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.921224018783099</v>
+        <v>0.812377506849707</v>
       </c>
       <c r="K8" t="n">
-        <v>0.856105169340463</v>
+        <v>0.744471458773784</v>
       </c>
       <c r="L8" t="n">
-        <v>0.971569055944056</v>
+        <v>0.906606125356125</v>
       </c>
     </row>
     <row r="9">
@@ -1283,37 +1280,37 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="n">
-        <v>0.680815160801924</v>
+        <v>0.749096514462045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.580433785766691</v>
+        <v>0.591477616782007</v>
       </c>
       <c r="H9" t="n">
-        <v>0.747201861422146</v>
+        <v>0.869939943927496</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.634458980156123</v>
+        <v>0.805053269747727</v>
       </c>
       <c r="K9" t="n">
-        <v>0.585509289980093</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="L9" t="n">
-        <v>0.721376388077148</v>
+        <v>0.853705554386703</v>
       </c>
     </row>
     <row r="10">
@@ -1321,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1333,25 +1330,25 @@
         <v>38</v>
       </c>
       <c r="F10" t="n">
-        <v>0.869948606149641</v>
+        <v>0.936584632604443</v>
       </c>
       <c r="G10" t="n">
-        <v>0.777975817286162</v>
+        <v>0.892204415952032</v>
       </c>
       <c r="H10" t="n">
-        <v>0.951673347910593</v>
+        <v>0.980926034827049</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.823616968362975</v>
+        <v>0.894837331904087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.708466955579632</v>
+        <v>0.834539687703318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.928313253012048</v>
+        <v>0.94440001623772</v>
       </c>
     </row>
     <row r="11">
@@ -1359,7 +1356,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1371,25 +1368,25 @@
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>0.888618290073723</v>
+        <v>0.925907254567836</v>
       </c>
       <c r="G11" t="n">
-        <v>0.761565259544035</v>
+        <v>0.831692627708978</v>
       </c>
       <c r="H11" t="n">
-        <v>0.950002750098218</v>
+        <v>0.993478260869565</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.851008059836108</v>
+        <v>0.850880227832948</v>
       </c>
       <c r="K11" t="n">
-        <v>0.748882978723404</v>
+        <v>0.783816067653277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.911580658268996</v>
+        <v>0.93386524822695</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1409,25 +1406,25 @@
         <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.679340296835686</v>
+        <v>0.689787738000497</v>
       </c>
       <c r="G12" t="n">
-        <v>0.612471867233133</v>
+        <v>0.541407781862745</v>
       </c>
       <c r="H12" t="n">
-        <v>0.759515233468216</v>
+        <v>0.773422993444366</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.62692618415362</v>
+        <v>0.804421518086179</v>
       </c>
       <c r="K12" t="n">
-        <v>0.561761750154607</v>
+        <v>0.752043350643486</v>
       </c>
       <c r="L12" t="n">
-        <v>0.682653490328007</v>
+        <v>0.884192439862543</v>
       </c>
     </row>
     <row r="13">
@@ -1435,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1447,25 +1444,25 @@
         <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.921860991241497</v>
+        <v>0.955092801911932</v>
       </c>
       <c r="G13" t="n">
-        <v>0.86736385349238</v>
+        <v>0.913974437377691</v>
       </c>
       <c r="H13" t="n">
-        <v>0.962331800852209</v>
+        <v>0.987222596551794</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.870248742899904</v>
+        <v>0.89802110961481</v>
       </c>
       <c r="K13" t="n">
-        <v>0.774093043107128</v>
+        <v>0.860119047619048</v>
       </c>
       <c r="L13" t="n">
-        <v>0.929218308327897</v>
+        <v>0.932866409537167</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1771,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.1</v>
@@ -1789,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.947817899440924</v>
+        <v>0.924215814736809</v>
       </c>
       <c r="H8" t="n">
-        <v>0.896744157740993</v>
+        <v>0.865602705613138</v>
       </c>
       <c r="I8" t="n">
-        <v>0.989040500813973</v>
+        <v>0.965075757575758</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.921003521101515</v>
+        <v>0.837546423019183</v>
       </c>
       <c r="L8" t="n">
-        <v>0.88212443584784</v>
+        <v>0.752653276955603</v>
       </c>
       <c r="M8" t="n">
-        <v>0.952155904842821</v>
+        <v>0.928221040189125</v>
       </c>
     </row>
     <row r="9">
@@ -1818,37 +1815,37 @@
         <v>500</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.742156389697318</v>
+        <v>0.80793509383786</v>
       </c>
       <c r="H9" t="n">
-        <v>0.698768594723309</v>
+        <v>0.712395653114187</v>
       </c>
       <c r="I9" t="n">
-        <v>0.81681179848884</v>
+        <v>0.890392803138523</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.682869070773598</v>
+        <v>0.825560393194817</v>
       </c>
       <c r="L9" t="n">
-        <v>0.629610125646711</v>
+        <v>0.76547619047619</v>
       </c>
       <c r="M9" t="n">
-        <v>0.717357571214393</v>
+        <v>0.891978092783505</v>
       </c>
     </row>
     <row r="10">
@@ -1859,37 +1856,37 @@
         <v>500</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.936405563583694</v>
+        <v>0.947352565224111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.881963137680554</v>
+        <v>0.924767599499436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.998979591836735</v>
+        <v>0.971512533877876</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.894336146970896</v>
+        <v>0.890560658895868</v>
       </c>
       <c r="L10" t="n">
-        <v>0.824630058834017</v>
+        <v>0.849685534591195</v>
       </c>
       <c r="M10" t="n">
-        <v>0.980555555555556</v>
+        <v>0.93112558421326</v>
       </c>
     </row>
     <row r="11">
@@ -1897,40 +1894,40 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.950571860156772</v>
+        <v>0.930559291698956</v>
       </c>
       <c r="H11" t="n">
-        <v>0.867373015558811</v>
+        <v>0.851180340557276</v>
       </c>
       <c r="I11" t="n">
-        <v>0.989882852959034</v>
+        <v>0.976761363636364</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.900681313282912</v>
+        <v>0.852140032485751</v>
       </c>
       <c r="L11" t="n">
-        <v>0.772582205029014</v>
+        <v>0.750401691331924</v>
       </c>
       <c r="M11" t="n">
-        <v>0.945263612352702</v>
+        <v>0.943963675213675</v>
       </c>
     </row>
     <row r="12">
@@ -1941,7 +1938,7 @@
         <v>500</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0.1</v>
@@ -1953,25 +1950,25 @@
         <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.709429736904851</v>
+        <v>0.753530977954665</v>
       </c>
       <c r="H12" t="n">
-        <v>0.65183473023637</v>
+        <v>0.626607476012793</v>
       </c>
       <c r="I12" t="n">
-        <v>0.75506515812694</v>
+        <v>0.862591911764706</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.658365885758715</v>
+        <v>0.799930259755368</v>
       </c>
       <c r="L12" t="n">
-        <v>0.578353297840875</v>
+        <v>0.748393670582594</v>
       </c>
       <c r="M12" t="n">
-        <v>0.761662028838857</v>
+        <v>0.858182213389641</v>
       </c>
     </row>
     <row r="13">
@@ -1979,10 +1976,10 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.1</v>
@@ -1994,25 +1991,25 @@
         <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0.931532632297962</v>
+        <v>0.972188636790961</v>
       </c>
       <c r="H13" t="n">
-        <v>0.869564868908521</v>
+        <v>0.944614158163265</v>
       </c>
       <c r="I13" t="n">
-        <v>0.996938775510204</v>
+        <v>0.989954382263676</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.900444648782833</v>
+        <v>0.919472114610189</v>
       </c>
       <c r="L13" t="n">
-        <v>0.784443021766965</v>
+        <v>0.886260876031829</v>
       </c>
       <c r="M13" t="n">
-        <v>0.992857142857143</v>
+        <v>0.96888711607499</v>
       </c>
     </row>
   </sheetData>
@@ -2363,28 +2360,28 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00960631053638794</v>
+        <v>0.0518832839245884</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.947591655103159</v>
+        <v>0.898583210037624</v>
       </c>
       <c r="H8" t="n">
-        <v>0.899070840323319</v>
+        <v>0.765869116525329</v>
       </c>
       <c r="I8" t="n">
-        <v>0.974258611552729</v>
+        <v>0.973792613636364</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -2392,17 +2389,17 @@
       <c r="K8" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
+      <c r="L8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M8" t="n">
-        <v>0.892267727889019</v>
+        <v>0.839739324876256</v>
       </c>
       <c r="N8" t="n">
-        <v>0.862237493128092</v>
+        <v>0.771653846153846</v>
       </c>
       <c r="O8" t="n">
-        <v>0.922722016651249</v>
+        <v>0.93386524822695</v>
       </c>
     </row>
     <row r="9">
@@ -2410,28 +2407,28 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0137046689762817</v>
+        <v>0.0194171188320483</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="e">
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.620119931619318</v>
+        <v>0.668761061443357</v>
       </c>
       <c r="H9" t="n">
-        <v>0.463295502819712</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.703052443629767</v>
+        <v>0.829428921041308</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -2439,17 +2436,17 @@
       <c r="K9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
+      <c r="L9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M9" t="n">
-        <v>0.611546292413607</v>
+        <v>0.809017760873661</v>
       </c>
       <c r="N9" t="n">
-        <v>0.517056619995087</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="O9" t="n">
-        <v>0.686149425287356</v>
+        <v>0.862400063118031</v>
       </c>
     </row>
     <row r="10">
@@ -2457,28 +2454,28 @@
         <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0155848751740653</v>
+        <v>0.00683854041105977</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="e">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
       <c r="G10" t="n">
-        <v>0.933330787797685</v>
+        <v>0.897703444824627</v>
       </c>
       <c r="H10" t="n">
-        <v>0.835665149027218</v>
+        <v>0.823559081763307</v>
       </c>
       <c r="I10" t="n">
-        <v>0.99515723490685</v>
+        <v>0.96320424855235</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -2486,17 +2483,17 @@
       <c r="K10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
+      <c r="L10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M10" t="n">
-        <v>0.89119077550448</v>
+        <v>0.825051244128405</v>
       </c>
       <c r="N10" t="n">
-        <v>0.804032413660043</v>
+        <v>0.729054872771335</v>
       </c>
       <c r="O10" t="n">
-        <v>0.96838262139467</v>
+        <v>0.893476234855545</v>
       </c>
     </row>
     <row r="11">
@@ -2504,28 +2501,28 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00801880134902893</v>
+        <v>0.0425580907086569</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="e">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.93235079693475</v>
+        <v>0.889421461680469</v>
       </c>
       <c r="H11" t="n">
-        <v>0.876282619279455</v>
+        <v>0.756376787557128</v>
       </c>
       <c r="I11" t="n">
-        <v>0.967590092503304</v>
+        <v>0.989565217391304</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -2533,17 +2530,17 @@
       <c r="K11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
+      <c r="L11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M11" t="n">
-        <v>0.867933193933055</v>
+        <v>0.832862494741365</v>
       </c>
       <c r="N11" t="n">
-        <v>0.835989304812834</v>
+        <v>0.753068181818182</v>
       </c>
       <c r="O11" t="n">
-        <v>0.909881422924901</v>
+        <v>0.918656422379827</v>
       </c>
     </row>
     <row r="12">
@@ -2551,46 +2548,46 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0132969831442191</v>
+        <v>0.0805044566566716</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="e">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.994408074195308</v>
-      </c>
       <c r="G12" t="n">
-        <v>0.569037250100923</v>
+        <v>0.617058944715747</v>
       </c>
       <c r="H12" t="n">
-        <v>0.491666288101473</v>
+        <v>0.500441176470588</v>
       </c>
       <c r="I12" t="n">
-        <v>0.709651582054504</v>
+        <v>0.77259688412853</v>
       </c>
       <c r="J12" t="n">
-        <v>0.959885386819484</v>
+        <v>0.9800796812749</v>
       </c>
       <c r="K12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.959885386819484</v>
+      <c r="L12" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M12" t="n">
-        <v>0.575685448354478</v>
+        <v>0.786682544244723</v>
       </c>
       <c r="N12" t="n">
-        <v>0.510444382852919</v>
+        <v>0.745494186046512</v>
       </c>
       <c r="O12" t="n">
-        <v>0.691254503345342</v>
+        <v>0.833643263757116</v>
       </c>
     </row>
     <row r="13">
@@ -2598,28 +2595,28 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0142332462121855</v>
+        <v>0.0050600130328016</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
       <c r="G13" t="n">
-        <v>0.931308643899931</v>
+        <v>0.908839489645472</v>
       </c>
       <c r="H13" t="n">
-        <v>0.829138321995465</v>
+        <v>0.879280481032126</v>
       </c>
       <c r="I13" t="n">
-        <v>0.999672011661808</v>
+        <v>0.949067862165963</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2627,17 +2624,17 @@
       <c r="K13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
+      <c r="L13" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M13" t="n">
-        <v>0.88561761249765</v>
+        <v>0.848866014803389</v>
       </c>
       <c r="N13" t="n">
-        <v>0.775639658848614</v>
+        <v>0.81677559912854</v>
       </c>
       <c r="O13" t="n">
-        <v>0.964481409001957</v>
+        <v>0.879510008340284</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
         <v>0.699011786824287</v>
@@ -2726,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
         <v>0.666542929676414</v>
@@ -2758,7 +2755,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
         <v>0.704079408442671</v>
@@ -2790,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
         <v>0.672460296812975</v>
@@ -2822,7 +2819,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
         <v>0.596714797328485</v>
@@ -2854,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
         <v>0.710243491677758</v>
@@ -2883,31 +2880,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>0.854344652491684</v>
+        <v>0.647946898509218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.723443254506687</v>
+        <v>0.4585905250258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.934751811069255</v>
+        <v>0.833145211186273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.916058394160584</v>
+        <v>0.715328467153285</v>
       </c>
       <c r="H8" t="n">
-        <v>0.823132774804462</v>
+        <v>0.679773028562287</v>
       </c>
       <c r="I8" t="n">
-        <v>0.732005623242737</v>
+        <v>0.584716010733453</v>
       </c>
       <c r="J8" t="n">
-        <v>0.916478615946701</v>
+        <v>0.856267806267806</v>
       </c>
     </row>
     <row r="9">
@@ -2915,31 +2912,31 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>0.54176154822385</v>
+        <v>0.64645986175074</v>
       </c>
       <c r="E9" t="n">
-        <v>0.460468545020871</v>
+        <v>0.485968137254902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.629955035613118</v>
+        <v>0.759245713126778</v>
       </c>
       <c r="G9" t="n">
-        <v>0.713467048710602</v>
+        <v>0.832</v>
       </c>
       <c r="H9" t="n">
-        <v>0.540623904482125</v>
+        <v>0.805895042714233</v>
       </c>
       <c r="I9" t="n">
-        <v>0.452197697950923</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="J9" t="n">
-        <v>0.60404047976012</v>
+        <v>0.850644329896907</v>
       </c>
     </row>
     <row r="10">
@@ -2947,31 +2944,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0.887988189604785</v>
+        <v>0.720874894445801</v>
       </c>
       <c r="E10" t="n">
-        <v>0.841975723140496</v>
+        <v>0.618954489129901</v>
       </c>
       <c r="F10" t="n">
-        <v>0.959870019436346</v>
+        <v>0.839081231619052</v>
       </c>
       <c r="G10" t="n">
-        <v>0.898550724637681</v>
+        <v>0.795379537953795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.793371368353981</v>
+        <v>0.694666495406945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.727087662951067</v>
+        <v>0.609993176131625</v>
       </c>
       <c r="J10" t="n">
-        <v>0.895634920634921</v>
+        <v>0.781489036206017</v>
       </c>
     </row>
     <row r="11">
@@ -2979,31 +2976,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
-        <v>0.859122269183519</v>
+        <v>0.60255940153022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.78080961686178</v>
+        <v>0.476100694444444</v>
       </c>
       <c r="F11" t="n">
-        <v>0.918746792678755</v>
+        <v>0.743707180500659</v>
       </c>
       <c r="G11" t="n">
-        <v>0.897810218978102</v>
+        <v>0.722627737226277</v>
       </c>
       <c r="H11" t="n">
-        <v>0.800066775986594</v>
+        <v>0.685501928467338</v>
       </c>
       <c r="I11" t="n">
-        <v>0.743114131000729</v>
+        <v>0.6009375</v>
       </c>
       <c r="J11" t="n">
-        <v>0.851420454545455</v>
+        <v>0.862339743589744</v>
       </c>
     </row>
     <row r="12">
@@ -3014,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>0.56678360807247</v>
+        <v>0.606702178509606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.49450968181347</v>
+        <v>0.487701235267117</v>
       </c>
       <c r="F12" t="n">
-        <v>0.644056316046245</v>
+        <v>0.696600872811399</v>
       </c>
       <c r="G12" t="n">
-        <v>0.770773638968481</v>
+        <v>0.840637450199203</v>
       </c>
       <c r="H12" t="n">
-        <v>0.563603554158525</v>
+        <v>0.787486741049029</v>
       </c>
       <c r="I12" t="n">
-        <v>0.496016260162602</v>
+        <v>0.756144163468051</v>
       </c>
       <c r="J12" t="n">
-        <v>0.622742946708464</v>
+        <v>0.823046225473894</v>
       </c>
     </row>
     <row r="13">
@@ -3046,28 +3043,28 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>0.876440598758502</v>
+        <v>0.755696508540302</v>
       </c>
       <c r="E13" t="n">
-        <v>0.810955578512397</v>
+        <v>0.609742817114392</v>
       </c>
       <c r="F13" t="n">
-        <v>0.957397959183673</v>
+        <v>0.828356408227848</v>
       </c>
       <c r="G13" t="n">
-        <v>0.893719806763285</v>
+        <v>0.861842105263158</v>
       </c>
       <c r="H13" t="n">
-        <v>0.774346650316729</v>
+        <v>0.710234809064833</v>
       </c>
       <c r="I13" t="n">
-        <v>0.691049190535492</v>
+        <v>0.599356060606061</v>
       </c>
       <c r="J13" t="n">
-        <v>0.82401988908013</v>
+        <v>0.781562867215041</v>
       </c>
     </row>
   </sheetData>
@@ -3355,37 +3352,37 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>0.979444043637531</v>
+        <v>0.943332965354268</v>
       </c>
       <c r="G8" t="n">
-        <v>0.934172491970527</v>
+        <v>0.877825077399381</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999863387978142</v>
+        <v>0.995</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.946336161818759</v>
+        <v>0.857215320511826</v>
       </c>
       <c r="K8" t="n">
-        <v>0.911337464356218</v>
+        <v>0.796881606765328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.977858056265985</v>
+        <v>0.920092592592593</v>
       </c>
     </row>
     <row r="9">
@@ -3393,7 +3390,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -3405,25 +3402,25 @@
         <v>38</v>
       </c>
       <c r="F9" t="n">
-        <v>0.716214690163669</v>
+        <v>0.815005308293967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.586080102338356</v>
+        <v>0.693203815840062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.805050429504952</v>
+        <v>0.935553124915839</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.620539609809178</v>
+        <v>0.818450913021504</v>
       </c>
       <c r="K9" t="n">
-        <v>0.550829462508295</v>
+        <v>0.767261904761905</v>
       </c>
       <c r="L9" t="n">
-        <v>0.701793785310734</v>
+        <v>0.864719650746897</v>
       </c>
     </row>
     <row r="10">
@@ -3431,7 +3428,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -3443,25 +3440,25 @@
         <v>38</v>
       </c>
       <c r="F10" t="n">
-        <v>0.927119091597584</v>
+        <v>0.96102931007325</v>
       </c>
       <c r="G10" t="n">
-        <v>0.776994916003537</v>
+        <v>0.92929095957889</v>
       </c>
       <c r="H10" t="n">
-        <v>0.997339650145773</v>
+        <v>0.984932726738282</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.878714601389206</v>
+        <v>0.897315083130573</v>
       </c>
       <c r="K10" t="n">
-        <v>0.647757090488134</v>
+        <v>0.824606918238994</v>
       </c>
       <c r="L10" t="n">
-        <v>0.967264295276343</v>
+        <v>0.934144994050654</v>
       </c>
     </row>
     <row r="11">
@@ -3469,37 +3466,37 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>0.929454441984135</v>
+        <v>0.937711415951286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.812141112379545</v>
+        <v>0.856537828947368</v>
       </c>
       <c r="H11" t="n">
-        <v>0.986969151528578</v>
+        <v>0.994130434782609</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.867413476271387</v>
+        <v>0.848388744300252</v>
       </c>
       <c r="K11" t="n">
-        <v>0.769463249516441</v>
+        <v>0.764492600422833</v>
       </c>
       <c r="L11" t="n">
-        <v>0.920156320035858</v>
+        <v>0.939636752136752</v>
       </c>
     </row>
     <row r="12">
@@ -3507,7 +3504,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -3519,25 +3516,25 @@
         <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.671099748143296</v>
+        <v>0.714225145947142</v>
       </c>
       <c r="G12" t="n">
-        <v>0.600333634328499</v>
+        <v>0.534659269957983</v>
       </c>
       <c r="H12" t="n">
-        <v>0.726968355478831</v>
+        <v>0.79450678804318</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.629791341027629</v>
+        <v>0.805334854809396</v>
       </c>
       <c r="K12" t="n">
-        <v>0.585246598639456</v>
+        <v>0.758328629487469</v>
       </c>
       <c r="L12" t="n">
-        <v>0.69185791166646</v>
+        <v>0.879553264604811</v>
       </c>
     </row>
     <row r="13">
@@ -3545,37 +3542,37 @@
         <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.948964657355045</v>
+        <v>0.95877509572484</v>
       </c>
       <c r="G13" t="n">
-        <v>0.905653320034198</v>
+        <v>0.911839699074074</v>
       </c>
       <c r="H13" t="n">
-        <v>0.999489795918367</v>
+        <v>0.994497049614125</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.920141987157532</v>
+        <v>0.88639850802265</v>
       </c>
       <c r="K13" t="n">
-        <v>0.84583866837388</v>
+        <v>0.815146396396396</v>
       </c>
       <c r="L13" t="n">
-        <v>0.994303797468354</v>
+        <v>0.917025691699605</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +3881,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3893,31 +3890,31 @@
         <v>0.1</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.970244457447449</v>
+        <v>0.927345999565655</v>
       </c>
       <c r="H8" t="n">
-        <v>0.922612318388726</v>
+        <v>0.884186339009288</v>
       </c>
       <c r="I8" t="n">
-        <v>0.997127303479763</v>
+        <v>0.980536231884058</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.937733462742529</v>
+        <v>0.869378299515686</v>
       </c>
       <c r="L8" t="n">
-        <v>0.871902535998281</v>
+        <v>0.822272727272727</v>
       </c>
       <c r="M8" t="n">
-        <v>0.977525252525252</v>
+        <v>0.918908382066277</v>
       </c>
     </row>
     <row r="9">
@@ -3925,7 +3922,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -3934,31 +3931,31 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.753122467293587</v>
+        <v>0.842476871626819</v>
       </c>
       <c r="H9" t="n">
-        <v>0.671409294086224</v>
+        <v>0.745105968858132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.818063642453823</v>
+        <v>0.950757248749702</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.688634850809322</v>
+        <v>0.85131028898426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.606508684405026</v>
+        <v>0.808285098172739</v>
       </c>
       <c r="M9" t="n">
-        <v>0.752120105201636</v>
+        <v>0.902837681464338</v>
       </c>
     </row>
     <row r="10">
@@ -3969,7 +3966,7 @@
         <v>500</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
@@ -3981,25 +3978,25 @@
         <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.948864187334331</v>
+        <v>0.963255432281869</v>
       </c>
       <c r="H10" t="n">
-        <v>0.899053460906909</v>
+        <v>0.91493297795669</v>
       </c>
       <c r="I10" t="n">
-        <v>0.998809523809524</v>
+        <v>0.98857859107217</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.910749687059745</v>
+        <v>0.887941295803602</v>
       </c>
       <c r="L10" t="n">
-        <v>0.854698051321628</v>
+        <v>0.813769956458636</v>
       </c>
       <c r="M10" t="n">
-        <v>0.994578313253012</v>
+        <v>0.940202871931875</v>
       </c>
     </row>
     <row r="11">
@@ -4007,40 +4004,40 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.97448337478107</v>
+        <v>0.919222837699434</v>
       </c>
       <c r="H11" t="n">
-        <v>0.950006631299735</v>
+        <v>0.853289742432061</v>
       </c>
       <c r="I11" t="n">
-        <v>0.991735776277724</v>
+        <v>0.979257246376812</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.924535703584486</v>
+        <v>0.837752900434962</v>
       </c>
       <c r="L11" t="n">
-        <v>0.881060606060606</v>
+        <v>0.753636363636364</v>
       </c>
       <c r="M11" t="n">
-        <v>0.965449910354101</v>
+        <v>0.914467592592593</v>
       </c>
     </row>
     <row r="12">
@@ -4051,7 +4048,7 @@
         <v>500</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>0.1</v>
@@ -4063,25 +4060,25 @@
         <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.723648900971963</v>
+        <v>0.791620285657554</v>
       </c>
       <c r="H12" t="n">
-        <v>0.614136053685234</v>
+        <v>0.733838312991887</v>
       </c>
       <c r="I12" t="n">
-        <v>0.775485573173028</v>
+        <v>0.932077205882353</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.675719323413781</v>
+        <v>0.822121045670243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.587575114881584</v>
+        <v>0.772167475728155</v>
       </c>
       <c r="M12" t="n">
-        <v>0.710032166752445</v>
+        <v>0.900984349770215</v>
       </c>
     </row>
     <row r="13">
@@ -4092,7 +4089,7 @@
         <v>500</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0.1</v>
@@ -4104,25 +4101,25 @@
         <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0.966928449998739</v>
+        <v>0.971761494015639</v>
       </c>
       <c r="H13" t="n">
-        <v>0.913697474570985</v>
+        <v>0.949067862775106</v>
       </c>
       <c r="I13" t="n">
-        <v>0.995280612244898</v>
+        <v>0.993443561312269</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.935080493503977</v>
+        <v>0.910958902076246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.823675635904982</v>
+        <v>0.863999766573296</v>
       </c>
       <c r="M13" t="n">
-        <v>0.975629098673174</v>
+        <v>0.962156381486676</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results/Q1_czech/models/supplements_models_colon.xlsx
+++ b/analysis/results/Q1_czech/models/supplements_models_colon.xlsx
@@ -680,25 +680,25 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.858007619034405</v>
+        <v>0.869889023304929</v>
       </c>
       <c r="E5" t="n">
-        <v>0.790835652442795</v>
+        <v>0.701979166666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.971177884615385</v>
+        <v>0.988287545787546</v>
       </c>
       <c r="G5" t="n">
         <v>0.754098360655738</v>
       </c>
       <c r="H5" t="n">
-        <v>0.709872012045925</v>
+        <v>0.736013850082278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.611024844720497</v>
+        <v>0.543465909090909</v>
       </c>
       <c r="J5" t="n">
-        <v>0.805519480519481</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -712,25 +712,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.693448820926197</v>
+        <v>0.695307746138916</v>
       </c>
       <c r="E6" t="n">
-        <v>0.558962703962704</v>
+        <v>0.5037109375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.805496031746032</v>
+        <v>0.855836397058823</v>
       </c>
       <c r="G6" t="n">
         <v>0.817460317460317</v>
       </c>
       <c r="H6" t="n">
-        <v>0.793204299433303</v>
+        <v>0.798638963318722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.711724290780142</v>
+        <v>0.712619047619048</v>
       </c>
       <c r="J6" t="n">
-        <v>0.893702651515152</v>
+        <v>0.892518501387604</v>
       </c>
     </row>
     <row r="7">
@@ -744,25 +744,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.892481484144577</v>
+        <v>0.902896869363742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.840615601503759</v>
+        <v>0.792243515550807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.961679784179784</v>
+        <v>0.980288476874003</v>
       </c>
       <c r="G7" t="n">
         <v>0.884892086330935</v>
       </c>
       <c r="H7" t="n">
-        <v>0.800214926337769</v>
+        <v>0.808852894523378</v>
       </c>
       <c r="I7" t="n">
-        <v>0.732386363636364</v>
+        <v>0.686856617647059</v>
       </c>
       <c r="J7" t="n">
-        <v>0.889493006993007</v>
+        <v>0.928571428571429</v>
       </c>
     </row>
     <row r="8">
@@ -872,25 +872,25 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.851001637425042</v>
+        <v>0.854746474051827</v>
       </c>
       <c r="E11" t="n">
-        <v>0.757980902777778</v>
+        <v>0.694319064857284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.94305303030303</v>
+        <v>0.979443918350168</v>
       </c>
       <c r="G11" t="n">
         <v>0.846715328467153</v>
       </c>
       <c r="H11" t="n">
-        <v>0.793262414283268</v>
+        <v>0.799983519872997</v>
       </c>
       <c r="I11" t="n">
-        <v>0.723144007155635</v>
+        <v>0.629567307692308</v>
       </c>
       <c r="J11" t="n">
-        <v>0.918656422379827</v>
+        <v>0.930871212121212</v>
       </c>
     </row>
     <row r="12">
@@ -904,25 +904,25 @@
         <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>0.695258631025166</v>
+        <v>0.726065254497915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.51570443802521</v>
+        <v>0.571451171875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.837141810046804</v>
+        <v>0.877312972035109</v>
       </c>
       <c r="G12" t="n">
         <v>0.872509960159363</v>
       </c>
       <c r="H12" t="n">
-        <v>0.804178070291388</v>
+        <v>0.816718400734064</v>
       </c>
       <c r="I12" t="n">
-        <v>0.743558139534884</v>
+        <v>0.73978125</v>
       </c>
       <c r="J12" t="n">
-        <v>0.878178694158076</v>
+        <v>0.893715872717002</v>
       </c>
     </row>
     <row r="13">
@@ -936,25 +936,25 @@
         <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.887786770463758</v>
+        <v>0.901800418443387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.834266759386381</v>
+        <v>0.804238199015596</v>
       </c>
       <c r="F13" t="n">
-        <v>0.932612557537399</v>
+        <v>0.965296144358644</v>
       </c>
       <c r="G13" t="n">
         <v>0.802631578947368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.743175992175074</v>
+        <v>0.747754444124122</v>
       </c>
       <c r="I13" t="n">
-        <v>0.684259259259259</v>
+        <v>0.591916264090177</v>
       </c>
       <c r="J13" t="n">
-        <v>0.797212389380531</v>
+        <v>0.882631160572337</v>
       </c>
     </row>
   </sheetData>
@@ -1140,25 +1140,25 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.881700870227656</v>
+        <v>0.904177456951268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.768876262626263</v>
+        <v>0.724060314685315</v>
       </c>
       <c r="H5" t="n">
-        <v>0.963179945054945</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.76055100696405</v>
+        <v>0.778608156861878</v>
       </c>
       <c r="K5" t="n">
-        <v>0.650489130434783</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.862175324675325</v>
+        <v>0.95125</v>
       </c>
     </row>
     <row r="6">
@@ -1178,25 +1178,25 @@
         <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>0.708234200949133</v>
+        <v>0.732063928503125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.50291769041769</v>
+        <v>0.554109619487909</v>
       </c>
       <c r="H6" t="n">
-        <v>0.86294184981685</v>
+        <v>0.883243611828883</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.771692841499672</v>
+        <v>0.803992855317442</v>
       </c>
       <c r="K6" t="n">
-        <v>0.708333333333333</v>
+        <v>0.712619047619048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.839204545454546</v>
+        <v>0.8953125</v>
       </c>
     </row>
     <row r="7">
@@ -1216,25 +1216,25 @@
         <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.852943467814581</v>
+        <v>0.873411963792913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.719899673579109</v>
+        <v>0.718519555157486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.927395470383275</v>
+        <v>0.984246309246309</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.815999876296444</v>
+        <v>0.834968223133417</v>
       </c>
       <c r="K7" t="n">
-        <v>0.711876208897486</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="L7" t="n">
-        <v>0.934497460087083</v>
+        <v>0.940617647058823</v>
       </c>
     </row>
     <row r="8">
@@ -1368,25 +1368,25 @@
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>0.925907254567836</v>
+        <v>0.932304916342718</v>
       </c>
       <c r="G11" t="n">
-        <v>0.831692627708978</v>
+        <v>0.826509287925697</v>
       </c>
       <c r="H11" t="n">
-        <v>0.993478260869565</v>
+        <v>0.996600694444444</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.850880227832948</v>
+        <v>0.840062537556451</v>
       </c>
       <c r="K11" t="n">
-        <v>0.783816067653277</v>
+        <v>0.702876280535855</v>
       </c>
       <c r="L11" t="n">
-        <v>0.93386524822695</v>
+        <v>0.958333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1406,25 +1406,25 @@
         <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.689787738000497</v>
+        <v>0.701231171151663</v>
       </c>
       <c r="G12" t="n">
-        <v>0.541407781862745</v>
+        <v>0.533612460609244</v>
       </c>
       <c r="H12" t="n">
-        <v>0.773422993444366</v>
+        <v>0.849750839956064</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.804421518086179</v>
+        <v>0.819898378651909</v>
       </c>
       <c r="K12" t="n">
-        <v>0.752043350643486</v>
+        <v>0.733979591836735</v>
       </c>
       <c r="L12" t="n">
-        <v>0.884192439862543</v>
+        <v>0.901551389786684</v>
       </c>
     </row>
     <row r="13">
@@ -1444,25 +1444,25 @@
         <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.955092801911932</v>
+        <v>0.961604800923723</v>
       </c>
       <c r="G13" t="n">
-        <v>0.913974437377691</v>
+        <v>0.894263325573761</v>
       </c>
       <c r="H13" t="n">
-        <v>0.987222596551794</v>
+        <v>0.997864129306766</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.89802110961481</v>
+        <v>0.907262333472292</v>
       </c>
       <c r="K13" t="n">
-        <v>0.860119047619048</v>
+        <v>0.810911896148117</v>
       </c>
       <c r="L13" t="n">
-        <v>0.932866409537167</v>
+        <v>0.971570080862534</v>
       </c>
     </row>
   </sheetData>
@@ -1663,25 +1663,25 @@
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.925977596312418</v>
+        <v>0.931203718594648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.898561789772727</v>
+        <v>0.795961538461538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.990816326530612</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.825463956333522</v>
+        <v>0.832364878899632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.741576086956522</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>0.908116883116883</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="6">
@@ -1704,25 +1704,25 @@
         <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773564989356845</v>
+        <v>0.761792051675954</v>
       </c>
       <c r="H6" t="n">
-        <v>0.626022781792013</v>
+        <v>0.596003625576796</v>
       </c>
       <c r="I6" t="n">
-        <v>0.887249331550802</v>
+        <v>0.89939251639833</v>
       </c>
       <c r="J6" t="n">
         <v>0.968253968253968</v>
       </c>
       <c r="K6" t="n">
-        <v>0.799947847505238</v>
+        <v>0.81074596718527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.708211436170213</v>
+        <v>0.719072295247725</v>
       </c>
       <c r="M6" t="n">
-        <v>0.861505681818182</v>
+        <v>0.898020833333333</v>
       </c>
     </row>
     <row r="7">
@@ -1745,25 +1745,25 @@
         <v>38</v>
       </c>
       <c r="G7" t="n">
-        <v>0.911900496427754</v>
+        <v>0.924898752605324</v>
       </c>
       <c r="H7" t="n">
-        <v>0.829058075933076</v>
+        <v>0.822665153133903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.984062319259688</v>
+        <v>0.991181876531684</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.87221886239309</v>
+        <v>0.877331842784944</v>
       </c>
       <c r="L7" t="n">
-        <v>0.815572390572391</v>
+        <v>0.772140330188679</v>
       </c>
       <c r="M7" t="n">
-        <v>0.938824383164006</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
     <row r="8">
